--- a/data/trans_orig/P14A20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A20-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E40EF6D1-0789-401E-ACCA-64E07A484A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8496096F-BEA6-4B61-9EE4-527514F4DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56DEB7B2-2354-4953-BC2B-D925CBD8F58D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBEA8108-138B-4F37-8C8B-2ED7574C5531}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="218">
   <si>
     <t>Población que recibe medicación o terapia por hemorroides en 2012 (Tasa respuesta: 1,2%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>58,06%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -120,19 +120,19 @@
     <t>41,94%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -153,19 +153,19 @@
     <t>25,7%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -174,19 +174,19 @@
     <t>74,3%</t>
   </si>
   <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -195,49 +195,49 @@
     <t>28,67%</t>
   </si>
   <si>
-    <t>71,94%</t>
+    <t>71,92%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>28,06%</t>
+    <t>28,08%</t>
   </si>
   <si>
     <t>67,13%</t>
   </si>
   <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -261,43 +261,49 @@
     <t>17,0%</t>
   </si>
   <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
     <t>68,66%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -312,216 +318,225 @@
     <t>28,11%</t>
   </si>
   <si>
-    <t>72,32%</t>
+    <t>72,29%</t>
   </si>
   <si>
     <t>41,15%</t>
   </si>
   <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hemorroides en 2015 (Tasa respuesta: 1,07%)</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>83,93%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hemorroides en 2015 (Tasa respuesta: 1,07%)</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
     <t>28,36%</t>
   </si>
   <si>
@@ -531,13 +546,16 @@
     <t>10,81%</t>
   </si>
   <si>
+    <t>75,35%</t>
+  </si>
+  <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>12,24%</t>
@@ -549,19 +567,19 @@
     <t>33,23%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>87,76%</t>
@@ -573,10 +591,10 @@
     <t>66,77%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -585,19 +603,19 @@
     <t>62,84%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>58,72%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -606,73 +624,73 @@
     <t>37,16%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
   </si>
   <si>
     <t>41,28%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2944B86-CD45-4A27-9E64-71AA67E2E9AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6013D051-FBD8-4F5E-A165-F883266E08A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2168,7 +2186,7 @@
         <v>81</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
@@ -2180,13 +2198,13 @@
         <v>6607</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2195,13 +2213,13 @@
         <v>11423</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,7 +2275,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2269,10 +2287,10 @@
         <v>3293</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -2284,13 +2302,13 @@
         <v>2149</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2299,13 +2317,13 @@
         <v>5442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2338,13 @@
         <v>2287</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2335,10 +2353,10 @@
         <v>5498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>14</v>
@@ -2350,13 +2368,13 @@
         <v>7784</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2442,13 @@
         <v>12615</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -2439,13 +2457,13 @@
         <v>21946</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -2454,13 +2472,13 @@
         <v>34562</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2493,13 @@
         <v>13513</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -2490,13 +2508,13 @@
         <v>33835</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -2505,13 +2523,13 @@
         <v>47347</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,7 +2585,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6EAC19-17DB-4951-9F7B-736E6FFA080B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73256FD9-F293-45EB-95E4-C5758B164453}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2608,7 +2626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2715,13 +2733,13 @@
         <v>3333</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2730,13 +2748,13 @@
         <v>3361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2745,13 +2763,13 @@
         <v>6694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2784,13 @@
         <v>3390</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2781,13 +2799,13 @@
         <v>2933</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2796,13 +2814,13 @@
         <v>6324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2901,7 @@
         <v>2155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>23</v>
@@ -2898,7 +2916,7 @@
         <v>2155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>23</v>
@@ -2932,7 +2950,7 @@
         <v>985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>23</v>
@@ -2947,7 +2965,7 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>23</v>
@@ -3180,7 +3198,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3189,13 +3207,13 @@
         <v>3196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3204,13 +3222,13 @@
         <v>3197</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3246,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3240,13 +3258,13 @@
         <v>7746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3255,13 +3273,13 @@
         <v>13289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,10 +3496,10 @@
         <v>2915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3493,7 +3511,7 @@
         <v>2519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>23</v>
@@ -3508,13 +3526,13 @@
         <v>5434</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3547,13 @@
         <v>2027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3544,7 +3562,7 @@
         <v>997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
@@ -3559,13 +3577,13 @@
         <v>3024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3651,13 @@
         <v>4910</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3648,13 +3666,13 @@
         <v>1103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3663,13 +3681,13 @@
         <v>6013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3702,13 @@
         <v>4171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3699,10 +3717,10 @@
         <v>7910</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>14</v>
@@ -3714,13 +3732,13 @@
         <v>12081</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3794,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3788,7 +3806,7 @@
         <v>2744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>23</v>
@@ -3803,13 +3821,13 @@
         <v>6876</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3818,13 +3836,13 @@
         <v>9620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,7 +3857,7 @@
         <v>2696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
@@ -3854,13 +3872,13 @@
         <v>4067</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3869,13 +3887,13 @@
         <v>6763</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3961,13 @@
         <v>15705</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3958,13 +3976,13 @@
         <v>20260</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -3973,13 +3991,13 @@
         <v>35965</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4012,13 @@
         <v>17828</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -4009,13 +4027,13 @@
         <v>25690</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -4024,13 +4042,13 @@
         <v>43518</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4104,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A20-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8496096F-BEA6-4B61-9EE4-527514F4DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E93C1A90-7DCE-4FA4-A72D-0E03670A1F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBEA8108-138B-4F37-8C8B-2ED7574C5531}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3AB2F1CB-6982-4598-AF8D-0CD7F7871F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="214">
   <si>
     <t>Población que recibe medicación o terapia por hemorroides en 2012 (Tasa respuesta: 1,2%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>58,06%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -120,19 +120,19 @@
     <t>41,94%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -156,541 +156,529 @@
     <t>8,17%</t>
   </si>
   <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hemorroides en 2016 (Tasa respuesta: 1,07%)</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
     <t>58,93%</t>
   </si>
   <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>41,07%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hemorroides en 2015 (Tasa respuesta: 1,07%)</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>70,93%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6013D051-FBD8-4F5E-A165-F883266E08A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F078BC1B-B3F4-40B1-974F-FBCEA680091A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,7 +2278,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -2302,13 +2290,13 @@
         <v>2149</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2317,13 +2305,13 @@
         <v>5442</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2326,13 @@
         <v>2287</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2353,10 +2341,10 @@
         <v>5498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>14</v>
@@ -2368,13 +2356,13 @@
         <v>7784</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2430,13 @@
         <v>12615</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -2457,13 +2445,13 @@
         <v>21946</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -2472,13 +2460,13 @@
         <v>34562</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2481,13 @@
         <v>13513</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -2508,13 +2496,13 @@
         <v>33835</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -2523,13 +2511,13 @@
         <v>47347</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2573,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73256FD9-F293-45EB-95E4-C5758B164453}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC46C1C-C616-410F-B0EF-B44ED0859A6A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2626,7 +2614,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2733,13 +2721,13 @@
         <v>3333</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2748,13 +2736,13 @@
         <v>3361</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2763,13 +2751,13 @@
         <v>6694</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2772,13 @@
         <v>3390</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2799,13 +2787,13 @@
         <v>2933</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2814,13 +2802,13 @@
         <v>6324</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2889,7 @@
         <v>2155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>23</v>
@@ -2916,7 +2904,7 @@
         <v>2155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>23</v>
@@ -2950,7 +2938,7 @@
         <v>985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>23</v>
@@ -2965,7 +2953,7 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>23</v>
@@ -3198,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3207,13 +3195,13 @@
         <v>3196</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3222,13 +3210,13 @@
         <v>3197</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3234,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3258,13 +3246,13 @@
         <v>7746</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3273,13 +3261,13 @@
         <v>13289</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,10 +3484,10 @@
         <v>2915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3511,7 +3499,7 @@
         <v>2519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>23</v>
@@ -3526,13 +3514,13 @@
         <v>5434</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3535,13 @@
         <v>2027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3562,7 +3550,7 @@
         <v>997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
@@ -3577,13 +3565,13 @@
         <v>3024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3639,13 @@
         <v>4910</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3666,13 +3654,13 @@
         <v>1103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3681,13 +3669,13 @@
         <v>6013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3690,13 @@
         <v>4171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3717,10 +3705,10 @@
         <v>7910</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>14</v>
@@ -3732,13 +3720,13 @@
         <v>12081</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3794,7 @@
         <v>2744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>23</v>
@@ -3821,13 +3809,13 @@
         <v>6876</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3836,13 +3824,13 @@
         <v>9620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3845,7 @@
         <v>2696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
@@ -3872,13 +3860,13 @@
         <v>4067</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3887,13 +3875,13 @@
         <v>6763</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3949,13 @@
         <v>15705</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3976,13 +3964,13 @@
         <v>20260</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -3991,13 +3979,13 @@
         <v>35965</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4000,13 @@
         <v>17828</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -4027,13 +4015,13 @@
         <v>25690</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -4042,13 +4030,13 @@
         <v>43518</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,7 +4092,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
